--- a/Requirements/Work product Review Comments.xlsx
+++ b/Requirements/Work product Review Comments.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\Internet Banking System Main\Requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2993F391-21EC-4601-9FB5-2774816F5B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D179534-E64D-4266-8A87-FE70B3F8E666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{96B1375C-4481-47FB-8728-107B4127CBF6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{96B1375C-4481-47FB-8728-107B4127CBF6}"/>
   </bookViews>
   <sheets>
     <sheet name="SRS" sheetId="1" r:id="rId1"/>
     <sheet name="Design Document" sheetId="2" r:id="rId2"/>
     <sheet name="Code" sheetId="4" r:id="rId3"/>
-    <sheet name="PMP" sheetId="5" r:id="rId4"/>
-    <sheet name="RTM" sheetId="6" r:id="rId5"/>
+    <sheet name="RTM" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="42">
   <si>
     <t>Version 2.5</t>
   </si>
@@ -151,6 +150,40 @@
   </si>
   <si>
     <t>update perform transaction feature as per example created with coach.</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modify the naming convention of the designs
+</t>
+  </si>
+  <si>
+    <t>there are missing designs</t>
+  </si>
+  <si>
+    <t>Version 3</t>
+  </si>
+  <si>
+    <t>there is no easy tracibility between function name in class diagram and the drawing
+need more sections to better descripe the design</t>
+  </si>
+  <si>
+    <t>modify the functions as per mentioned
+in design document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">put all functions related to client in one class and 
+</t>
+  </si>
+  <si>
+    <t>put all function related to the 
+admin in one class</t>
+  </si>
+  <si>
+    <t>trans001 needs to be only linked
+ to the part saying the attributes 
+not the whole requirements?</t>
   </si>
 </sst>
 </file>
@@ -530,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB0BD62-AB30-4A19-A76E-1BE33705B3C6}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,48 +850,205 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E0B6F6-43E1-4272-B834-BA6FE36FFD00}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="44" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47159AEC-5A7F-45C3-B62C-BE495E4ADF18}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7635D059-C2E8-43E0-819F-759DB33118CD}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6745A2-F120-44B0-8629-3670CB45B0BD}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6745A2-F120-44B0-8629-3670CB45B0BD}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Requirements/Work product Review Comments.xlsx
+++ b/Requirements/Work product Review Comments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\Internet Banking System Main\Requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D179534-E64D-4266-8A87-FE70B3F8E666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5938C4E7-2665-468E-A52F-130E4EDBF3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{96B1375C-4481-47FB-8728-107B4127CBF6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="43">
   <si>
     <t>Version 2.5</t>
   </si>
@@ -184,6 +184,9 @@
     <t>trans001 needs to be only linked
  to the part saying the attributes 
 not the whole requirements?</t>
+  </si>
+  <si>
+    <t>there are some missing diagrams</t>
   </si>
 </sst>
 </file>
@@ -1006,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6745A2-F120-44B0-8629-3670CB45B0BD}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,7 +1051,22 @@
         <v>33</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Requirements/Work product Review Comments.xlsx
+++ b/Requirements/Work product Review Comments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\Internet Banking System Main\Requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5938C4E7-2665-468E-A52F-130E4EDBF3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4076671-A5B7-4A85-876E-153B1286A2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{96B1375C-4481-47FB-8728-107B4127CBF6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{96B1375C-4481-47FB-8728-107B4127CBF6}"/>
   </bookViews>
   <sheets>
     <sheet name="SRS" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="51">
   <si>
     <t>Version 2.5</t>
   </si>
@@ -187,6 +187,35 @@
   </si>
   <si>
     <t>there are some missing diagrams</t>
+  </si>
+  <si>
+    <t>Version 4</t>
+  </si>
+  <si>
+    <t>add wire frames</t>
+  </si>
+  <si>
+    <t>add classes names in code 
+beside each feature</t>
+  </si>
+  <si>
+    <t>add use case beside main 
+functions</t>
+  </si>
+  <si>
+    <t>add erd beside any function 
+related to database.</t>
+  </si>
+  <si>
+    <t>Version 5</t>
+  </si>
+  <si>
+    <t>sequence diagrams are required to be generic
+not high level.</t>
+  </si>
+  <si>
+    <t>change IDs of navigation function flowchart
+from low level to high level</t>
   </si>
 </sst>
 </file>
@@ -216,7 +245,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,6 +255,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -250,6 +285,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -853,10 +889,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E0B6F6-43E1-4272-B834-BA6FE36FFD00}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,6 +957,28 @@
       </c>
       <c r="D4" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1009,10 +1067,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6745A2-F120-44B0-8629-3670CB45B0BD}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,32 +1095,86 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2"/>
+    </row>
+    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Requirements/Work product Review Comments.xlsx
+++ b/Requirements/Work product Review Comments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\Internet Banking System Main\Requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4076671-A5B7-4A85-876E-153B1286A2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF71D24-BE47-439C-B6F8-D60EE3D5D2D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{96B1375C-4481-47FB-8728-107B4127CBF6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{96B1375C-4481-47FB-8728-107B4127CBF6}"/>
   </bookViews>
   <sheets>
     <sheet name="SRS" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="53">
   <si>
     <t>Version 2.5</t>
   </si>
@@ -216,6 +216,15 @@
   <si>
     <t>change IDs of navigation function flowchart
 from low level to high level</t>
+  </si>
+  <si>
+    <t>add specific messages to transfer
+money, if user entered negative 
+number</t>
+  </si>
+  <si>
+    <t>add specific messages to transfer
+money, if user entered zeros</t>
   </si>
 </sst>
 </file>
@@ -891,7 +900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E0B6F6-43E1-4272-B834-BA6FE36FFD00}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -989,10 +998,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47159AEC-5A7F-45C3-B62C-BE495E4ADF18}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1056,6 +1065,34 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
         <v>7</v>
       </c>
     </row>
